--- a/data/TA2 Module 1 2 Data File v3.xlsx
+++ b/data/TA2 Module 1 2 Data File v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B3BE83-4C6D-4BCC-A853-7B1E3ED4C8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D54BA-58D6-40BC-94AC-9200D512358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="1785" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{BDE5702F-0D69-EF4E-A3E7-18CBF5F56302}"/>
+    <workbookView xWindow="30705" yWindow="1770" windowWidth="26385" windowHeight="14430" activeTab="2" xr2:uid="{BDE5702F-0D69-EF4E-A3E7-18CBF5F56302}"/>
   </bookViews>
   <sheets>
     <sheet name="How to Get Lat Long" sheetId="3" r:id="rId1"/>
@@ -4308,9 +4308,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:19" ht="15.75">
+    <row r="3" spans="2:19" ht="15.6">
       <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="2:19" ht="15.75">
+    <row r="4" spans="2:19" ht="15.6">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4352,7 +4352,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75">
+    <row r="5" spans="2:19" ht="15.6">
       <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75">
+    <row r="6" spans="2:19" ht="15.6">
       <c r="B6" s="12" t="s">
         <v>48</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75">
+    <row r="7" spans="2:19" ht="15.6">
       <c r="B7" s="12" t="s">
         <v>49</v>
       </c>
@@ -4418,7 +4418,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75">
+    <row r="8" spans="2:19" ht="15.6">
       <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75">
+    <row r="9" spans="2:19" ht="15.6">
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
         <v>51</v>
@@ -4462,7 +4462,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75">
+    <row r="10" spans="2:19" ht="15.6">
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>52</v>
@@ -4484,7 +4484,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75">
+    <row r="11" spans="2:19" ht="15.6">
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>53</v>
@@ -4506,7 +4506,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75">
+    <row r="12" spans="2:19" ht="15.6">
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
         <v>54</v>
@@ -4528,7 +4528,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75">
+    <row r="13" spans="2:19" ht="15.6">
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
         <v>55</v>
@@ -4550,7 +4550,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75">
+    <row r="14" spans="2:19" ht="15.6">
       <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75">
+    <row r="15" spans="2:19" ht="15.6">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75">
+    <row r="16" spans="2:19" ht="15.6">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -4614,7 +4614,7 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75">
+    <row r="17" spans="2:19" ht="15.6">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4634,7 +4634,7 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75">
+    <row r="18" spans="2:19" ht="15.6">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4654,7 +4654,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75">
+    <row r="19" spans="2:19" ht="15.6">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4674,7 +4674,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75">
+    <row r="20" spans="2:19" ht="15.6">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4694,7 +4694,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75">
+    <row r="21" spans="2:19" ht="15.6">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4714,7 +4714,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75">
+    <row r="22" spans="2:19" ht="15.6">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4734,7 +4734,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75">
+    <row r="23" spans="2:19" ht="15.6">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -4754,7 +4754,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75">
+    <row r="24" spans="2:19" ht="15.6">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4774,7 +4774,7 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75">
+    <row r="25" spans="2:19" ht="15.6">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4794,7 +4794,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75">
+    <row r="26" spans="2:19" ht="15.6">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4814,7 +4814,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75">
+    <row r="27" spans="2:19" ht="15.6">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4834,7 +4834,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75">
+    <row r="28" spans="2:19" ht="15.6">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4854,7 +4854,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75">
+    <row r="29" spans="2:19" ht="15.6">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4874,7 +4874,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75">
+    <row r="30" spans="2:19" ht="15.6">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -4894,7 +4894,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75">
+    <row r="31" spans="2:19" ht="15.6">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4914,7 +4914,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75">
+    <row r="32" spans="2:19" ht="15.6">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4934,7 +4934,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75">
+    <row r="33" spans="2:19" ht="15.6">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -4954,7 +4954,7 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75">
+    <row r="34" spans="2:19" ht="15.6">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -4974,7 +4974,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19" ht="15.75">
+    <row r="35" spans="2:19" ht="15.6">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -4994,7 +4994,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75">
+    <row r="36" spans="2:19" ht="15.6">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -5014,7 +5014,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19" ht="15.75">
+    <row r="37" spans="2:19" ht="15.6">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -5034,7 +5034,7 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="2:19" ht="15.75">
+    <row r="38" spans="2:19" ht="15.6">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -5054,7 +5054,7 @@
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75">
+    <row r="39" spans="2:19" ht="15.6">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -5074,7 +5074,7 @@
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="2:19" ht="15.75">
+    <row r="40" spans="2:19" ht="15.6">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -5094,7 +5094,7 @@
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75">
+    <row r="41" spans="2:19" ht="15.6">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -5114,7 +5114,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="2:19" ht="15.75">
+    <row r="42" spans="2:19" ht="15.6">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -5134,7 +5134,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="2:19" ht="15.75">
+    <row r="43" spans="2:19" ht="15.6">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -5154,7 +5154,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="2:19" ht="15.75">
+    <row r="44" spans="2:19" ht="15.6">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -5174,7 +5174,7 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="2:19" ht="15.75">
+    <row r="45" spans="2:19" ht="15.6">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -5194,7 +5194,7 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="2:19" ht="15.75">
+    <row r="46" spans="2:19" ht="15.6">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -5228,15 +5228,15 @@
       <selection activeCell="D8" sqref="D8:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.6328125" customWidth="1"/>
+    <col min="5" max="5" width="2.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" customWidth="1"/>
+    <col min="7" max="7" width="3.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
@@ -5450,7 +5450,7 @@
     <row r="18" spans="1:11">
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.6">
       <c r="G19" s="46"/>
       <c r="K19" s="36"/>
     </row>
@@ -5501,13 +5501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D415E3-D5D1-B840-8D7C-45EBD24418F1}">
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" s="35" customFormat="1" ht="16.5">
+    <row r="1" spans="1:32" s="35" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75">
+    <row r="4" spans="1:32" ht="15.6">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>44</v>
@@ -5690,28 +5690,28 @@
         <v>53.479223519999998</v>
       </c>
       <c r="D4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.489223520000003</v>
       </c>
       <c r="E4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.499223520000001</v>
       </c>
       <c r="F4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.509223519999999</v>
       </c>
       <c r="G4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.519223519999997</v>
       </c>
       <c r="H4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.529223520000002</v>
       </c>
       <c r="I4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.53922352</v>
       </c>
       <c r="J4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.549223519999998</v>
       </c>
       <c r="K4" s="21">
-        <v>53.479223519999998</v>
+        <v>53.559223520000003</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -5735,7 +5735,7 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75">
+    <row r="5" spans="1:32" ht="15.6">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>45</v>
@@ -5744,28 +5744,28 @@
         <v>-31.637000400000002</v>
       </c>
       <c r="D5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.6470004</v>
       </c>
       <c r="E5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.657000400000001</v>
       </c>
       <c r="F5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.667000399999999</v>
       </c>
       <c r="G5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.677000400000001</v>
       </c>
       <c r="H5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.687000399999999</v>
       </c>
       <c r="I5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.6970004</v>
       </c>
       <c r="J5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.707000399999998</v>
       </c>
       <c r="K5" s="22">
-        <v>-31.637000400000002</v>
+        <v>-31.7170004</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -6872,7 +6872,7 @@
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
-    <row r="28" spans="1:32" ht="16.5">
+    <row r="28" spans="1:32">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -6910,7 +6910,7 @@
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
-    <row r="29" spans="1:32" ht="15.75" thickBot="1">
+    <row r="29" spans="1:32" ht="15.6" thickBot="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16" t="s">
         <v>58</v>
@@ -6964,7 +6964,7 @@
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
-    <row r="30" spans="1:32" ht="32.25" thickBot="1">
+    <row r="30" spans="1:32" ht="31.8" thickBot="1">
       <c r="A30" s="31"/>
       <c r="B30" s="17" t="s">
         <v>61</v>
@@ -7005,7 +7005,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="15.95" customHeight="1">
+    <row r="33" spans="3:14" ht="15.9" customHeight="1">
       <c r="C33" s="37" t="s">
         <v>69</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="D63" s="92"/>
       <c r="E63" s="87"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="15.6">
       <c r="A64" s="90">
         <v>15</v>
       </c>
@@ -7596,13 +7596,13 @@
       <selection activeCell="A12" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="7" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="2.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.453125" customWidth="1"/>
+    <col min="5" max="7" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:7">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="G5" s="63"/>
     </row>
-    <row r="6" spans="1:7" ht="22.5">
+    <row r="6" spans="1:7" ht="21">
       <c r="A6" s="64" t="s">
         <v>2</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="G12" s="63"/>
     </row>
-    <row r="13" spans="1:7" ht="22.5">
+    <row r="13" spans="1:7" ht="21">
       <c r="A13" s="64" t="s">
         <v>92</v>
       </c>

--- a/data/TA2 Module 1 2 Data File v3.xlsx
+++ b/data/TA2 Module 1 2 Data File v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_20210802\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D54BA-58D6-40BC-94AC-9200D512358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD21662-C0AD-4D3A-8962-9AB2B27A0FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="1770" windowWidth="26385" windowHeight="14430" activeTab="2" xr2:uid="{BDE5702F-0D69-EF4E-A3E7-18CBF5F56302}"/>
+    <workbookView xWindow="34320" yWindow="5115" windowWidth="20235" windowHeight="15180" activeTab="2" xr2:uid="{BDE5702F-0D69-EF4E-A3E7-18CBF5F56302}"/>
   </bookViews>
   <sheets>
     <sheet name="How to Get Lat Long" sheetId="3" r:id="rId1"/>
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -947,6 +947,9 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,13 +1204,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>394296</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>525552</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>2881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2586,13 +2589,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>53661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>180661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2657,13 +2660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>60816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>187816</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2728,13 +2731,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>42928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>169928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2799,13 +2802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>51873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>178873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2870,13 +2873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>44718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>171718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2941,13 +2944,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>51873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>178873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3012,13 +3015,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>33985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>160985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3083,13 +3086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>42930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>169930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3154,13 +3157,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>71550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>198550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3225,13 +3228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>78705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3296,13 +3299,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>60817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>187817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3367,13 +3370,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>69762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>196762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3438,13 +3441,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>62608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>189608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3509,13 +3512,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>69762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>196762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3580,13 +3583,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>51874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>178874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3651,13 +3654,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>60819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>187819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3722,13 +3725,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>64397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>191397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3793,13 +3796,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>71551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>198551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3864,13 +3867,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>53663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>180663</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3935,13 +3938,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>384578</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>62608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511578</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>189608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5499,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D415E3-D5D1-B840-8D7C-45EBD24418F1}">
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15"/>
@@ -5832,39 +5835,55 @@
         <v>1</v>
       </c>
       <c r="B7" s="25">
-        <v>40970</v>
+        <v>38443</v>
       </c>
       <c r="C7" s="26">
-        <v>37.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D7" s="26">
-        <v>37.1</v>
+        <v>1.7</v>
       </c>
       <c r="E7" s="26">
-        <v>37.1</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="26">
-        <v>37.1</v>
+        <v>1.8</v>
       </c>
       <c r="G7" s="26">
-        <v>7</v>
-      </c>
-      <c r="H7" s="27"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2.6</v>
+      </c>
       <c r="I7" s="27"/>
       <c r="J7" s="26">
-        <v>37.1</v>
+        <v>1.3</v>
       </c>
       <c r="K7" s="26">
-        <v>7</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="M7" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>13</v>
+      </c>
+      <c r="O7" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="P7" s="27">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q7" s="27"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="R7" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="S7" s="7">
+        <v>5.4</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -5884,38 +5903,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="25">
-        <f>B7+365/2</f>
-        <v>41152.5</v>
-      </c>
-      <c r="C8" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="D8" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="E8" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="F8" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="G8" s="26">
-        <v>8.49</v>
-      </c>
+        <v>38473</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="K8" s="26">
-        <v>8.49</v>
-      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="Q8" s="27">
+        <v>1.2</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -5937,40 +5943,57 @@
         <v>3</v>
       </c>
       <c r="B9" s="25">
-        <f t="shared" ref="B9:B26" si="0">B8+365/2</f>
-        <v>41335</v>
+        <v>38626</v>
       </c>
       <c r="C9" s="26">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="D9" s="26">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="E9" s="26">
-        <v>13</v>
+        <v>0.99</v>
       </c>
       <c r="F9" s="26">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="26">
-        <v>10.7</v>
-      </c>
-      <c r="H9" s="27"/>
+        <v>3.9</v>
+      </c>
+      <c r="H9" s="27">
+        <v>2.4</v>
+      </c>
       <c r="I9" s="27"/>
       <c r="J9" s="26">
-        <v>13</v>
+        <v>0.87</v>
       </c>
       <c r="K9" s="26">
-        <v>10.7</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="M9" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="O9" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="P9" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2.5</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -5990,40 +6013,55 @@
         <v>4</v>
       </c>
       <c r="B10" s="25">
-        <f t="shared" si="0"/>
-        <v>41517.5</v>
+        <v>38808</v>
       </c>
       <c r="C10" s="26">
-        <v>5.0999999999999996</v>
+        <v>2</v>
       </c>
       <c r="D10" s="26">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="E10" s="26">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="F10" s="26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G10" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="H10" s="27"/>
+        <v>1.7</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27">
+        <v>2.4</v>
+      </c>
       <c r="I10" s="27"/>
       <c r="J10" s="26">
-        <v>5.0999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="K10" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="M10" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="N10" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="O10" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="P10" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5.4</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -6043,36 +6081,39 @@
         <v>5</v>
       </c>
       <c r="B11" s="25">
-        <f t="shared" si="0"/>
-        <v>41700</v>
-      </c>
-      <c r="C11" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="D11" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="E11" s="26">
-        <v>11.5</v>
-      </c>
+        <v>38991</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="H11" s="27">
+        <v>2.6</v>
+      </c>
       <c r="I11" s="27"/>
       <c r="J11" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="K11" s="26"/>
+        <v>1.2</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="R11" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S11" s="7">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -6092,40 +6133,43 @@
         <v>6</v>
       </c>
       <c r="B12" s="25">
-        <f t="shared" si="0"/>
-        <v>41882.5</v>
+        <v>39264</v>
       </c>
       <c r="C12" s="26">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="D12" s="26">
-        <v>5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E12" s="26">
-        <v>5</v>
-      </c>
-      <c r="F12" s="26">
-        <v>5</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="26"/>
       <c r="G12" s="26">
-        <v>12</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="26">
-        <v>5</v>
-      </c>
+      <c r="J12" s="26"/>
       <c r="K12" s="26">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="M12" s="27">
+        <v>6.3</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="O12" s="27">
+        <v>8.1</v>
+      </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>9.9</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -6145,34 +6189,45 @@
         <v>7</v>
       </c>
       <c r="B13" s="25">
-        <f t="shared" si="0"/>
-        <v>42065</v>
-      </c>
-      <c r="C13" s="26"/>
+        <v>39448</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1.8</v>
+      </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26">
-        <v>15</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="26">
-        <v>7</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26">
-        <v>15</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="H13" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="K13" s="26"/>
       <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="M13" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="O13" s="27">
+        <v>6.8</v>
+      </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="7">
+        <v>3.1</v>
+      </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="U13" s="7">
+        <v>3</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -6190,46 +6245,61 @@
         <v>8</v>
       </c>
       <c r="B14" s="25">
-        <f t="shared" si="0"/>
-        <v>42247.5</v>
+        <v>39630</v>
       </c>
       <c r="C14" s="26">
-        <v>4.5999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="D14" s="26">
-        <v>4.5999999999999996</v>
+        <v>6</v>
       </c>
       <c r="E14" s="26">
-        <v>4.5999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F14" s="26">
-        <v>4.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="G14" s="26">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="H14" s="26">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="I14" s="26">
-        <v>8.49</v>
+        <v>2.1</v>
       </c>
       <c r="J14" s="26">
-        <v>4.5999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K14" s="26">
-        <v>9.4</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" s="27">
+        <v>1.4</v>
+      </c>
+      <c r="M14" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O14" s="27">
+        <v>7.4</v>
+      </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="R14" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="S14" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U14" s="7">
+        <v>2.5</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -6247,42 +6317,61 @@
         <v>9</v>
       </c>
       <c r="B15" s="25">
-        <f t="shared" si="0"/>
-        <v>42430</v>
+        <v>39814</v>
       </c>
       <c r="C15" s="26">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="D15" s="26">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="E15" s="26">
-        <v>1.85</v>
+        <v>1</v>
       </c>
       <c r="F15" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="H15" s="26">
-        <v>8.49</v>
+        <v>2.4</v>
       </c>
       <c r="I15" s="26">
-        <v>10.7</v>
+        <v>2.8</v>
       </c>
       <c r="J15" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+        <v>0.86</v>
+      </c>
+      <c r="K15" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="L15" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="M15" s="27">
+        <v>4</v>
+      </c>
+      <c r="N15" s="27">
+        <v>2</v>
+      </c>
+      <c r="O15" s="27">
+        <v>7.5</v>
+      </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="R15" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="S15" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U15" s="7">
+        <v>3.8</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -6300,26 +6389,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="25">
-        <f t="shared" si="0"/>
-        <v>42612.5</v>
+        <v>39934</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26">
+        <v>0.72</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26">
-        <v>11.6</v>
-      </c>
-      <c r="H16" s="26">
-        <v>10.7</v>
-      </c>
-      <c r="I16" s="26">
-        <v>11.2</v>
-      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="26">
-        <v>11.6</v>
-      </c>
+      <c r="K16" s="26"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -6347,44 +6429,61 @@
         <v>11</v>
       </c>
       <c r="B17" s="25">
-        <f t="shared" si="0"/>
-        <v>42795</v>
+        <v>39995</v>
       </c>
       <c r="C17" s="26">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D17" s="26">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E17" s="26">
-        <v>1.8</v>
+        <v>0.87</v>
       </c>
       <c r="F17" s="26">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="G17" s="26">
-        <v>14.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H17" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2.5</v>
+      </c>
       <c r="J17" s="26">
-        <v>37.1</v>
+        <v>0.72</v>
       </c>
       <c r="K17" s="26">
-        <v>14.3</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+        <v>2.1</v>
+      </c>
+      <c r="L17" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="M17" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="N17" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="O17" s="27">
+        <v>7.7</v>
+      </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="R17" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="S17" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U17" s="7">
+        <v>2.9</v>
+      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -6402,40 +6501,65 @@
         <v>12</v>
       </c>
       <c r="B18" s="25">
-        <f t="shared" si="0"/>
-        <v>42977.5</v>
+        <v>40210</v>
       </c>
       <c r="C18" s="26">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="D18" s="26">
         <v>1.2</v>
       </c>
       <c r="E18" s="26">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="F18" s="26">
-        <v>1.2</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
+        <v>1.3</v>
+      </c>
+      <c r="G18" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2.4</v>
+      </c>
       <c r="I18" s="26">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="J18" s="26">
-        <v>41.9</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+        <v>0.98</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L18" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="O18" s="27">
+        <v>8.6</v>
+      </c>
+      <c r="P18" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="S18" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U18" s="7">
+        <v>3</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -6453,42 +6577,65 @@
         <v>13</v>
       </c>
       <c r="B19" s="25">
-        <f t="shared" si="0"/>
-        <v>43160</v>
+        <v>40360</v>
       </c>
       <c r="C19" s="26">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="D19" s="26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="26">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F19" s="26">
-        <v>1</v>
-      </c>
-      <c r="G19" s="27"/>
+        <v>1.4</v>
+      </c>
+      <c r="G19" s="27">
+        <v>4.5</v>
+      </c>
       <c r="H19" s="26">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="I19" s="26">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="J19" s="26">
-        <v>13</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="L19" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O19" s="27">
+        <v>11</v>
+      </c>
+      <c r="P19" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="S19" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="U19" s="7">
+        <v>3.2</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -6506,42 +6653,65 @@
         <v>14</v>
       </c>
       <c r="B20" s="25">
-        <f t="shared" si="0"/>
-        <v>43342.5</v>
+        <v>40544</v>
       </c>
       <c r="C20" s="26">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="D20" s="26">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="E20" s="26">
         <v>1.2</v>
       </c>
       <c r="F20" s="26">
-        <v>1.2</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>1.3</v>
+      </c>
+      <c r="G20" s="27">
+        <v>2.8</v>
+      </c>
       <c r="H20" s="26">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="I20" s="26">
-        <v>9.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J20" s="26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+        <v>1.3</v>
+      </c>
+      <c r="K20" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="L20" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="O20" s="27">
+        <v>10</v>
+      </c>
+      <c r="P20" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="S20" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="U20" s="7">
+        <v>3</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -6559,40 +6729,65 @@
         <v>15</v>
       </c>
       <c r="B21" s="25">
-        <f t="shared" si="0"/>
-        <v>43525</v>
+        <v>40725</v>
       </c>
       <c r="C21" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="26">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E21" s="26">
         <v>1</v>
       </c>
       <c r="F21" s="26">
-        <v>1</v>
-      </c>
-      <c r="G21" s="27"/>
+        <v>1.6</v>
+      </c>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
       <c r="H21" s="26">
-        <v>9.4</v>
-      </c>
-      <c r="I21" s="26"/>
+        <v>3.1</v>
+      </c>
+      <c r="I21" s="26">
+        <v>4.5</v>
+      </c>
       <c r="J21" s="26">
-        <v>11.5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K21" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L21" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="M21" s="27">
+        <v>4.8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
+      <c r="O21" s="27">
+        <v>10</v>
+      </c>
+      <c r="P21" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2</v>
+      </c>
+      <c r="S21" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="U21" s="7">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -6610,40 +6805,59 @@
         <v>16</v>
       </c>
       <c r="B22" s="25">
-        <f t="shared" si="0"/>
-        <v>43707.5</v>
+        <v>40940</v>
       </c>
       <c r="C22" s="26">
-        <v>0.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D22" s="26">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="E22" s="26">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F22" s="26">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26">
-        <v>11.6</v>
-      </c>
+      <c r="H22" s="26">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26"/>
       <c r="J22" s="26">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="L22" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="M22" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="O22" s="27">
+        <v>9.4</v>
+      </c>
+      <c r="P22" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="S22" s="7">
+        <v>7</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>3.4</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -6661,22 +6875,23 @@
         <v>17</v>
       </c>
       <c r="B23" s="25">
-        <f t="shared" si="0"/>
-        <v>43890</v>
+        <v>40969</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26">
-        <v>11.6</v>
-      </c>
+      <c r="G23" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="H23" s="26"/>
       <c r="I23" s="26">
-        <v>14.3</v>
+        <v>4.7</v>
       </c>
       <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="K23" s="26">
+        <v>1.9</v>
+      </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -6704,40 +6919,65 @@
         <v>18</v>
       </c>
       <c r="B24" s="25">
-        <f t="shared" si="0"/>
-        <v>44072.5</v>
+        <v>41091</v>
       </c>
       <c r="C24" s="26">
-        <v>0.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D24" s="26">
-        <v>0.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E24" s="26">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="F24" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="G24" s="27"/>
+        <v>1.7</v>
+      </c>
+      <c r="G24" s="27">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="H24" s="26">
-        <v>14.3</v>
-      </c>
-      <c r="I24" s="27"/>
+        <v>3.2</v>
+      </c>
+      <c r="I24" s="27">
+        <v>4.5</v>
+      </c>
       <c r="J24" s="26">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="L24" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="M24" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="N24" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="O24" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P24" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>1.9</v>
+      </c>
+      <c r="R24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="S24" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1</v>
+      </c>
+      <c r="U24" s="7">
+        <v>3.4</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -6755,38 +6995,65 @@
         <v>19</v>
       </c>
       <c r="B25" s="25">
-        <f t="shared" si="0"/>
-        <v>44255</v>
+        <v>41275</v>
       </c>
       <c r="C25" s="26">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="D25" s="26">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="E25" s="26">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="F25" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+        <v>1.9</v>
+      </c>
+      <c r="G25" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H25" s="27">
+        <v>3</v>
+      </c>
+      <c r="I25" s="27">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="J25" s="26">
-        <v>1.85</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="L25" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="M25" s="27">
+        <v>5.6</v>
+      </c>
+      <c r="N25" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="O25" s="27">
+        <v>8.6</v>
+      </c>
+      <c r="P25" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="R25" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="S25" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="U25" s="7">
+        <v>3.3</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
@@ -6804,28 +7071,61 @@
         <v>20</v>
       </c>
       <c r="B26" s="25">
-        <f t="shared" si="0"/>
-        <v>44437.5</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
+        <v>41518</v>
+      </c>
+      <c r="C26" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="E26" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="F26" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G26" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="H26" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="I26" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J26" s="26">
+        <v>1.3</v>
+      </c>
       <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="L26" s="27">
+        <v>2.7</v>
+      </c>
       <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="N26" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="O26" s="27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P26" s="27">
+        <v>0.37</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="R26" s="7">
+        <v>2</v>
+      </c>
+      <c r="S26" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="U26" s="7">
+        <v>2.7</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -6838,9 +7138,13 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A27" s="24">
+        <v>21</v>
+      </c>
+      <c r="B27" s="94">
+        <v>41548</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -6849,9 +7153,13 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="10">
+        <v>1.6</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="10">
+        <v>5.2</v>
+      </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -6872,32 +7180,52 @@
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+    <row r="28" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A28" s="24">
+        <v>22</v>
+      </c>
+      <c r="B28" s="94">
+        <v>41640</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K28" s="10">
+        <v>2.9</v>
+      </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10">
+        <v>6.3</v>
+      </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="P28" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>1.3</v>
+      </c>
       <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
+      <c r="S28" s="10">
+        <v>6</v>
+      </c>
+      <c r="T28" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="U28" s="10">
+        <v>3.6</v>
+      </c>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
@@ -6910,48 +7238,68 @@
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
     </row>
-    <row r="29" spans="1:32" ht="15.6" thickBot="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+    <row r="29" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A29" s="24">
+        <v>23</v>
+      </c>
+      <c r="B29" s="94">
+        <v>41821</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
+        <v>3</v>
+      </c>
+      <c r="M29" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="N29" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="O29" s="10">
+        <v>9</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="R29" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="S29" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="U29" s="10">
+        <v>3.3</v>
+      </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
@@ -6964,478 +7312,1313 @@
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
     </row>
-    <row r="30" spans="1:32" ht="31.8" thickBot="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A30" s="24">
+        <v>24</v>
+      </c>
+      <c r="B30" s="94">
+        <v>42005</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <v>3</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="O30" s="10">
+        <v>9</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+    </row>
+    <row r="31" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A31" s="24">
+        <v>25</v>
+      </c>
+      <c r="B31" s="94">
+        <v>42186</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="U31" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+    </row>
+    <row r="32" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A32" s="24">
+        <v>26</v>
+      </c>
+      <c r="B32" s="94">
+        <v>42217</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+    </row>
+    <row r="33" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A33" s="24">
+        <v>27</v>
+      </c>
+      <c r="B33" s="94">
+        <v>42370</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K33" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="U33" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+    </row>
+    <row r="34" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A34" s="24">
+        <v>28</v>
+      </c>
+      <c r="B34" s="94">
+        <v>42552</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="G34" s="9">
+        <v>3</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="K34" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="M34" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="N34" s="10">
+        <v>2</v>
+      </c>
+      <c r="O34" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="R34" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="S34" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+    </row>
+    <row r="35" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A35" s="24">
+        <v>29</v>
+      </c>
+      <c r="B35" s="94">
+        <v>42736</v>
+      </c>
+      <c r="C35" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2</v>
+      </c>
+      <c r="G35" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="L35" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="M35" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="O35" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="R35" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="S35" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+    </row>
+    <row r="36" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A36" s="24">
+        <v>30</v>
+      </c>
+      <c r="B36" s="94">
+        <v>42917</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="G36" s="9">
+        <v>3</v>
+      </c>
+      <c r="H36" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="K36" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="M36" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N36" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="O36" s="10">
+        <v>11</v>
+      </c>
+      <c r="P36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="R36" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S36" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+    </row>
+    <row r="37" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A37" s="24">
+        <v>31</v>
+      </c>
+      <c r="B37" s="94">
+        <v>43101</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+    </row>
+    <row r="38" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A38" s="24">
+        <v>32</v>
+      </c>
+      <c r="B38" s="94">
+        <v>43282</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G38" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K38" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="M38" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="N38" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="O38" s="10">
+        <v>7</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10">
+        <v>1</v>
+      </c>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+    </row>
+    <row r="39" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A39" s="24">
+        <v>33</v>
+      </c>
+      <c r="B39" s="94">
+        <v>43466</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G39" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K39" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M39" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="O39" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="P39" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="R39" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="S39" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="U39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+    </row>
+    <row r="40" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A40" s="24">
+        <v>34</v>
+      </c>
+      <c r="B40" s="94">
+        <v>43647</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="H40" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J40" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K40" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="M40" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="N40" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="O40" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="R40" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="S40" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+    </row>
+    <row r="41" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A41" s="24">
+        <v>35</v>
+      </c>
+      <c r="B41" s="94">
+        <v>43831</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="G41" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K41" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="M41" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="N41" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="O41" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="R41" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="S41" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="U41" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+    </row>
+    <row r="42" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A42" s="24">
+        <v>36</v>
+      </c>
+      <c r="B42" s="94">
+        <v>44013</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="H42" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K42" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="M42" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="N42" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="O42" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="S42" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="U42" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+    </row>
+    <row r="43" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+    </row>
+    <row r="44" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+    </row>
+    <row r="45" spans="1:32" ht="17.399999999999999" customHeight="1">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+    </row>
+    <row r="47" spans="1:32" ht="15.6" thickBot="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+    </row>
+    <row r="48" spans="1:32" ht="31.8" thickBot="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G48" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J48" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K48" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="E32" s="38" t="s">
+    <row r="50" spans="3:14">
+      <c r="E50" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="15.9" customHeight="1">
-      <c r="C33" s="37" t="s">
+    <row r="51" spans="3:14" ht="15.9" customHeight="1">
+      <c r="C51" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38" t="s">
+      <c r="D51" s="37"/>
+      <c r="E51" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="86" t="str">
-        <f t="shared" ref="F33:N33" si="1">C3</f>
+      <c r="F51" s="86" t="str">
+        <f>C3</f>
         <v>MW-1</v>
       </c>
-      <c r="G33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="G51" s="86" t="str">
+        <f>D3</f>
         <v>MW-2</v>
       </c>
-      <c r="H33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="H51" s="86" t="str">
+        <f>E3</f>
         <v>MW-3</v>
       </c>
-      <c r="I33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="I51" s="86" t="str">
+        <f>F3</f>
         <v>MW-4</v>
       </c>
-      <c r="J33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="J51" s="86" t="str">
+        <f>G3</f>
         <v>MW-5</v>
       </c>
-      <c r="K33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="K51" s="86" t="str">
+        <f>H3</f>
         <v>MW-6</v>
       </c>
-      <c r="L33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="L51" s="86" t="str">
+        <f>I3</f>
         <v>MW-7</v>
       </c>
-      <c r="M33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="M51" s="86" t="str">
+        <f>J3</f>
         <v>MW-8</v>
       </c>
-      <c r="N33" s="86" t="str">
-        <f t="shared" si="1"/>
+      <c r="N51" s="86" t="str">
+        <f>K3</f>
         <v>MW-9</v>
       </c>
     </row>
-    <row r="34" spans="3:14">
-      <c r="D34" s="40" t="s">
+    <row r="52" spans="3:14">
+      <c r="D52" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="D35" s="40" t="s">
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="D53" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-    </row>
-    <row r="36" spans="3:14">
-      <c r="D36" s="40" t="s">
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="D54" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-    </row>
-    <row r="37" spans="3:14">
-      <c r="D37" s="40" t="s">
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="D55" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-    </row>
-    <row r="38" spans="3:14">
-      <c r="D38" s="41" t="s">
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="D56" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-    </row>
-    <row r="39" spans="3:14">
-      <c r="D39" s="41" t="s">
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="D57" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-    </row>
-    <row r="40" spans="3:14">
-      <c r="D40" s="41" t="s">
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="D58" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-    </row>
-    <row r="41" spans="3:14">
-      <c r="D41" s="41" t="s">
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="D59" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-    </row>
-    <row r="42" spans="3:14">
-      <c r="D42" s="41" t="s">
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="D60" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="D43" s="41" t="s">
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="D61" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-    </row>
-    <row r="44" spans="3:14">
-      <c r="C44" s="40" t="s">
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="39"/>
-    </row>
-    <row r="49" spans="1:7" ht="36">
-      <c r="A49" s="13" t="s">
+      <c r="D62" s="39"/>
+    </row>
+    <row r="67" spans="1:5" ht="36">
+      <c r="A67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="88" t="s">
+      <c r="C67" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="88" t="s">
+      <c r="D67" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="89" t="s">
+      <c r="E67" s="89" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="90">
-        <v>1</v>
-      </c>
-      <c r="B50" s="91">
-        <v>40970</v>
-      </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="87"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="90">
-        <v>2</v>
-      </c>
-      <c r="B51" s="91">
-        <f>B50+365/2</f>
-        <v>41152.5</v>
-      </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="87"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="90">
-        <v>3</v>
-      </c>
-      <c r="B52" s="91">
-        <f t="shared" ref="B52:B69" si="2">B51+365/2</f>
-        <v>41335</v>
-      </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="87"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="90">
-        <v>4</v>
-      </c>
-      <c r="B53" s="91">
-        <f t="shared" si="2"/>
-        <v>41517.5</v>
-      </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="87"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="90">
-        <v>5</v>
-      </c>
-      <c r="B54" s="91">
-        <f t="shared" si="2"/>
-        <v>41700</v>
-      </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="87"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="90">
-        <v>6</v>
-      </c>
-      <c r="B55" s="91">
-        <f t="shared" si="2"/>
-        <v>41882.5</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="87"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="90">
-        <v>7</v>
-      </c>
-      <c r="B56" s="91">
-        <f t="shared" si="2"/>
-        <v>42065</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="87"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="90">
-        <v>8</v>
-      </c>
-      <c r="B57" s="91">
-        <f t="shared" si="2"/>
-        <v>42247.5</v>
-      </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="87"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="90">
-        <v>9</v>
-      </c>
-      <c r="B58" s="91">
-        <f t="shared" si="2"/>
-        <v>42430</v>
-      </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="87"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="90">
-        <v>10</v>
-      </c>
-      <c r="B59" s="91">
-        <f t="shared" si="2"/>
-        <v>42612.5</v>
-      </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="87"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="90">
-        <v>11</v>
-      </c>
-      <c r="B60" s="91">
-        <f t="shared" si="2"/>
-        <v>42795</v>
-      </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="87"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="90">
-        <v>12</v>
-      </c>
-      <c r="B61" s="91">
-        <f t="shared" si="2"/>
-        <v>42977.5</v>
-      </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="87"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="90">
-        <v>13</v>
-      </c>
-      <c r="B62" s="91">
-        <f t="shared" si="2"/>
-        <v>43160</v>
-      </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="87"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="90">
-        <v>14</v>
-      </c>
-      <c r="B63" s="91">
-        <f t="shared" si="2"/>
-        <v>43342.5</v>
-      </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="87"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.6">
-      <c r="A64" s="90">
-        <v>15</v>
-      </c>
-      <c r="B64" s="91">
-        <f t="shared" si="2"/>
-        <v>43525</v>
-      </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="87"/>
-      <c r="G64" s="36"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="90">
-        <v>16</v>
-      </c>
-      <c r="B65" s="91">
-        <f t="shared" si="2"/>
-        <v>43707.5</v>
-      </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="87"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="90">
-        <v>17</v>
-      </c>
-      <c r="B66" s="91">
-        <f t="shared" si="2"/>
-        <v>43890</v>
-      </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="87"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="90">
-        <v>18</v>
-      </c>
-      <c r="B67" s="91">
-        <f t="shared" si="2"/>
-        <v>44072.5</v>
-      </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="87"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="90">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B68" s="91">
-        <f t="shared" si="2"/>
-        <v>44255</v>
+        <v>40970</v>
       </c>
       <c r="C68" s="92"/>
       <c r="D68" s="92"/>
@@ -7443,19 +8626,236 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="90">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B69" s="91">
-        <f t="shared" si="2"/>
-        <v>44437.5</v>
+        <f>B68+365/2</f>
+        <v>41152.5</v>
       </c>
       <c r="C69" s="92"/>
       <c r="D69" s="92"/>
       <c r="E69" s="87"/>
     </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="90">
+        <v>3</v>
+      </c>
+      <c r="B70" s="91">
+        <f t="shared" ref="B70:B87" si="0">B69+365/2</f>
+        <v>41335</v>
+      </c>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="87"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="90">
+        <v>4</v>
+      </c>
+      <c r="B71" s="91">
+        <f t="shared" si="0"/>
+        <v>41517.5</v>
+      </c>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="87"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="90">
+        <v>5</v>
+      </c>
+      <c r="B72" s="91">
+        <f t="shared" si="0"/>
+        <v>41700</v>
+      </c>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="87"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="90">
+        <v>6</v>
+      </c>
+      <c r="B73" s="91">
+        <f t="shared" si="0"/>
+        <v>41882.5</v>
+      </c>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="87"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="90">
+        <v>7</v>
+      </c>
+      <c r="B74" s="91">
+        <f t="shared" si="0"/>
+        <v>42065</v>
+      </c>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="87"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="90">
+        <v>8</v>
+      </c>
+      <c r="B75" s="91">
+        <f t="shared" si="0"/>
+        <v>42247.5</v>
+      </c>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="87"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="90">
+        <v>9</v>
+      </c>
+      <c r="B76" s="91">
+        <f t="shared" si="0"/>
+        <v>42430</v>
+      </c>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="87"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="90">
+        <v>10</v>
+      </c>
+      <c r="B77" s="91">
+        <f t="shared" si="0"/>
+        <v>42612.5</v>
+      </c>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="87"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="90">
+        <v>11</v>
+      </c>
+      <c r="B78" s="91">
+        <f t="shared" si="0"/>
+        <v>42795</v>
+      </c>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="87"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="90">
+        <v>12</v>
+      </c>
+      <c r="B79" s="91">
+        <f t="shared" si="0"/>
+        <v>42977.5</v>
+      </c>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="87"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="90">
+        <v>13</v>
+      </c>
+      <c r="B80" s="91">
+        <f t="shared" si="0"/>
+        <v>43160</v>
+      </c>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="87"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="90">
+        <v>14</v>
+      </c>
+      <c r="B81" s="91">
+        <f t="shared" si="0"/>
+        <v>43342.5</v>
+      </c>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="87"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6">
+      <c r="A82" s="90">
+        <v>15</v>
+      </c>
+      <c r="B82" s="91">
+        <f t="shared" si="0"/>
+        <v>43525</v>
+      </c>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="87"/>
+      <c r="G82" s="36"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="90">
+        <v>16</v>
+      </c>
+      <c r="B83" s="91">
+        <f t="shared" si="0"/>
+        <v>43707.5</v>
+      </c>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="87"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="90">
+        <v>17</v>
+      </c>
+      <c r="B84" s="91">
+        <f t="shared" si="0"/>
+        <v>43890</v>
+      </c>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="87"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="90">
+        <v>18</v>
+      </c>
+      <c r="B85" s="91">
+        <f t="shared" si="0"/>
+        <v>44072.5</v>
+      </c>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="87"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="90">
+        <v>19</v>
+      </c>
+      <c r="B86" s="91">
+        <f t="shared" si="0"/>
+        <v>44255</v>
+      </c>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="87"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="90">
+        <v>20</v>
+      </c>
+      <c r="B87" s="91">
+        <f t="shared" si="0"/>
+        <v>44437.5</v>
+      </c>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="87"/>
+    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="B4EF" sqref="E1:F1 A27:I27 H1:AF1 A1 E28:F28 H28:K28 A28" name="Range1"/>
+    <protectedRange password="B4EF" sqref="E1:F1 H1:AF1 A1 E46:F46 H46:K46 A46 B27:I42 A43:I45" name="Range1"/>
   </protectedRanges>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="C3:AF6">
@@ -7503,9 +8903,9 @@
       <formula>#REF!&lt;&gt;$F2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:K29">
+  <conditionalFormatting sqref="C47:K47">
     <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
-      <formula>#REF!&lt;&gt;$F29</formula>
+      <formula>#REF!&lt;&gt;$F47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2">
